--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avila\Documents\ECE111\ECE111-Proj3-SimplifiedSHA256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773AFD3-9C90-40C1-BBDB-A5A77681089A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF367D4-BD63-4663-B510-D2710833EB53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Last Name</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Performance (High Effort)</t>
+  </si>
+  <si>
+    <t>Moved first read to IDLE and removed READ</t>
+  </si>
+  <si>
+    <t>For all blocks except first, reading begins at the end of previous block.</t>
+  </si>
+  <si>
+    <t>Performance degrades if done flag is set in WRITE.  Not sure why but TA didn't know either.</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1062,7 +1071,7 @@
     <col min="13" max="13" width="13.73046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>2.3311556852760353</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1191,22 +1200,12 @@
         <v>2.3311556852760353</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>966410</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>2.2921044584429087</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1260,47 +1259,82 @@
         <v>0.90831504511094863</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ref="M5:M8" si="2">I5*L5/1000</f>
+        <f t="shared" ref="M5:M7" si="2">I5*L5/1000</f>
         <v>2.2889539136795904</v>
       </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1404</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1129</v>
+      </c>
       <c r="I6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="e">
+        <v>2533</v>
+      </c>
+      <c r="J6" s="3">
+        <v>164.23</v>
+      </c>
+      <c r="K6" s="3">
+        <v>148</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="10" t="e">
+        <v>0.90117518114838946</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.2826767338488705</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1403</v>
+      </c>
       <c r="I7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="10" t="e">
+        <v>1403</v>
+      </c>
+      <c r="J7" s="3">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>147</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="10" t="e">
+        <v>0.9395973154362417</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3182550335570471</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="M8" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3D3662BC-2CB6-429F-9DB2-EB69A544982F}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{CFDF3004-9A17-4A2A-9B80-240641A9A3B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>